--- a/player.xlsx
+++ b/player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8430"/>
+    <workbookView windowWidth="19780" windowHeight="8990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -92,6 +92,9 @@
     <t>kl3000official</t>
   </si>
   <si>
+    <t>昭昭木木SAMA</t>
+  </si>
+  <si>
     <t>卢卢猹</t>
   </si>
   <si>
@@ -104,7 +107,10 @@
     <t>一只亚亚亚</t>
   </si>
   <si>
-    <t>白子</t>
+    <t>七千崖</t>
+  </si>
+  <si>
+    <t>量子蝈民九折酱</t>
   </si>
   <si>
     <t>我爱手抓肉</t>
@@ -119,6 +125,12 @@
     <t>南风y</t>
   </si>
   <si>
+    <t>时雨225</t>
+  </si>
+  <si>
+    <t>李乐逸</t>
+  </si>
+  <si>
     <t>Hastur</t>
   </si>
   <si>
@@ -131,6 +143,12 @@
     <t>mudqpitty</t>
   </si>
   <si>
+    <t>雨水磁浮202</t>
+  </si>
+  <si>
+    <t>把把狗运</t>
+  </si>
+  <si>
     <t>慷忾</t>
   </si>
   <si>
@@ -146,6 +164,9 @@
     <t>小星今天吃什么</t>
   </si>
   <si>
+    <t>箴言吶</t>
+  </si>
+  <si>
     <t>林雨</t>
   </si>
   <si>
@@ -158,6 +179,12 @@
     <t>失去梦想皮皮虾</t>
   </si>
   <si>
+    <t>烨十七</t>
+  </si>
+  <si>
+    <t>我偌无梦</t>
+  </si>
+  <si>
     <t>唤灵</t>
   </si>
   <si>
@@ -167,6 +194,15 @@
     <t>无望</t>
   </si>
   <si>
+    <t>mr道标</t>
+  </si>
+  <si>
+    <t>绫地宁宁nene</t>
+  </si>
+  <si>
+    <t>sengwei</t>
+  </si>
+  <si>
     <t>洛铭轩</t>
   </si>
   <si>
@@ -177,6 +213,12 @@
   </si>
   <si>
     <t>我想当理塘高手</t>
+  </si>
+  <si>
+    <t>席巴拉西</t>
+  </si>
+  <si>
+    <t>能不能放个炮</t>
   </si>
   <si>
     <t>电脑</t>
@@ -192,14 +234,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,17 +398,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -721,149 +745,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="B6 G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1383,10 +1407,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1404,13 +1428,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1434,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1458,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1479,10 +1503,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1500,13 +1524,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1524,13 +1548,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1548,13 +1572,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1572,13 +1596,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1599,10 +1623,10 @@
         <v>32</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1623,10 +1647,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1639,57 +1663,87 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
+    <row r="17" s="1" customFormat="1" spans="1:14">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:14">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:4">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:14">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
@@ -1700,10 +1754,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>35</v>
@@ -1714,13 +1768,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
@@ -1728,13 +1782,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:4">
@@ -1742,13 +1796,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:4">
@@ -1756,13 +1810,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:4">
@@ -1770,13 +1824,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:4">
@@ -1784,13 +1838,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:4">
@@ -1798,13 +1852,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
@@ -1812,13 +1866,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:4">
@@ -1826,10 +1880,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>47</v>
@@ -1840,10 +1894,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>47</v>
@@ -1854,13 +1908,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
@@ -1868,13 +1922,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:4">
@@ -1882,13 +1936,125 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:4">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:4">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:4">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="3">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:4">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:4">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:4">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3">
         <v>8</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>50</v>
+      <c r="D42" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/player.xlsx
+++ b/player.xlsx
@@ -1240,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="B6 G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/player.xlsx
+++ b/player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19780" windowHeight="8990"/>
+    <workbookView windowWidth="20220" windowHeight="10110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,13 +131,13 @@
     <t>李乐逸</t>
   </si>
   <si>
-    <t>Hastur</t>
+    <t>Hastur132</t>
   </si>
   <si>
     <t>哈基土豆饼</t>
   </si>
   <si>
-    <t>IotatoJC</t>
+    <t>lotatoJC</t>
   </si>
   <si>
     <t>mudqpitty</t>
@@ -167,7 +167,7 @@
     <t>箴言吶</t>
   </si>
   <si>
-    <t>林雨</t>
+    <t>林清雨</t>
   </si>
   <si>
     <t>北极星Cassiopeia</t>
@@ -1240,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/player.xlsx
+++ b/player.xlsx
@@ -89,7 +89,7 @@
     <t>秀千代EC</t>
   </si>
   <si>
-    <t>kl3000official</t>
+    <t>kl3000</t>
   </si>
   <si>
     <t>昭昭木木SAMA</t>
@@ -134,7 +134,7 @@
     <t>Hastur132</t>
   </si>
   <si>
-    <t>哈基土豆饼</t>
+    <t>哈基土豆咸水饼</t>
   </si>
   <si>
     <t>lotatoJC</t>
@@ -143,7 +143,7 @@
     <t>mudqpitty</t>
   </si>
   <si>
-    <t>雨水磁浮202</t>
+    <t>雨水磁浮2024</t>
   </si>
   <si>
     <t>把把狗运</t>
@@ -1240,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/player.xlsx
+++ b/player.xlsx
@@ -155,7 +155,7 @@
     <t>狂勇carry</t>
   </si>
   <si>
-    <t>Flamingo_li</t>
+    <t>Flamingo_Li</t>
   </si>
   <si>
     <t>幸福的勇气</t>
@@ -1240,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/player.xlsx
+++ b/player.xlsx
@@ -140,7 +140,7 @@
     <t>lotatoJC</t>
   </si>
   <si>
-    <t>mudqpitty</t>
+    <t>muqdipitty</t>
   </si>
   <si>
     <t>雨水磁浮2024</t>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/player.xlsx
+++ b/player.xlsx
@@ -191,7 +191,7 @@
     <t>非日常麻雀结社</t>
   </si>
   <si>
-    <t>无望</t>
+    <t>妄谓</t>
   </si>
   <si>
     <t>mr道标</t>
@@ -1240,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
